--- a/숙박여행사이트 프로젝트 문서/2차_WBS_샘플_v1.2.xlsx
+++ b/숙박여행사이트 프로젝트 문서/2차_WBS_샘플_v1.2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -864,264 +864,304 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>메인 배너 개발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배너 이미지 출력 및 상세페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여행지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천사이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙소 방 예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알고리즘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1:1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>?%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인 배너 개발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배너 이미지 출력 및 상세페이지 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여행지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천사이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게시판</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙소 방 예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예약</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>알고리즘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>마다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1:1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게시판</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
+    <t>?%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1648,7 +1688,55 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1662,54 +1750,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2027,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2047,181 +2087,181 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="53"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="58">
         <v>45621</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="31"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
     </row>
     <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="58">
         <v>45642</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="53"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="53"/>
     </row>
     <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="41"/>
+      <c r="D6" s="53"/>
       <c r="F6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="61"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
     </row>
     <row r="9" spans="2:23" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="54" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="51"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="46"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1">
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="46" t="s">
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="46" t="s">
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="48"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="43"/>
       <c r="W10" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1">
-      <c r="B11" s="59"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="6" t="s">
         <v>12</v>
       </c>
@@ -2275,7 +2315,7 @@
       </c>
     </row>
     <row r="12" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -2285,10 +2325,10 @@
         <v>59</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F12" s="10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
@@ -2309,9 +2349,9 @@
       <c r="W12" s="34"/>
     </row>
     <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="53"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>56</v>
@@ -2320,7 +2360,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="23">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
@@ -2328,8 +2368,8 @@
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="33"/>
@@ -2340,7 +2380,7 @@
       <c r="W13" s="35"/>
     </row>
     <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="53"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="24" t="s">
         <v>49</v>
       </c>
@@ -2359,8 +2399,8 @@
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="33"/>
@@ -2371,7 +2411,7 @@
       <c r="W14" s="35"/>
     </row>
     <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="53"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="24" t="s">
         <v>50</v>
       </c>
@@ -2382,16 +2422,16 @@
         <v>22</v>
       </c>
       <c r="F15" s="23">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="33"/>
@@ -2402,7 +2442,7 @@
       <c r="W15" s="35"/>
     </row>
     <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="53"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="24" t="s">
         <v>51</v>
       </c>
@@ -2421,8 +2461,8 @@
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="33"/>
@@ -2433,7 +2473,7 @@
       <c r="W16" s="35"/>
     </row>
     <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="53"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="24" t="s">
         <v>53</v>
       </c>
@@ -2441,7 +2481,7 @@
         <v>57</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F17" s="23">
         <v>1</v>
@@ -2464,7 +2504,7 @@
       <c r="W17" s="35"/>
     </row>
     <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="53"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="24" t="s">
         <v>61</v>
       </c>
@@ -2474,8 +2514,8 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>64</v>
+      <c r="F18" s="23">
+        <v>0.9</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
@@ -2495,7 +2535,7 @@
       <c r="W18" s="35"/>
     </row>
     <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="54"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="24" t="s">
         <v>52</v>
       </c>
@@ -2506,7 +2546,7 @@
         <v>22</v>
       </c>
       <c r="F19" s="23">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
@@ -2535,9 +2575,11 @@
       <c r="D20" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="F20" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
@@ -2557,18 +2599,20 @@
       <c r="W20" s="35"/>
     </row>
     <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="23">
-        <v>0</v>
+      <c r="E21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
@@ -2577,7 +2621,7 @@
       <c r="L21" s="39"/>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
-      <c r="O21" s="33"/>
+      <c r="O21" s="39"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="33"/>
       <c r="R21" s="33"/>
@@ -2588,16 +2632,18 @@
       <c r="W21" s="35"/>
     </row>
     <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="56"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="23">
-        <v>0</v>
+      <c r="E22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>80</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
@@ -2606,7 +2652,7 @@
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
       <c r="N22" s="39"/>
-      <c r="O22" s="33"/>
+      <c r="O22" s="39"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
@@ -2617,16 +2663,18 @@
       <c r="W22" s="35"/>
     </row>
     <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="56"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="23">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
@@ -2635,7 +2683,7 @@
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
       <c r="N23" s="39"/>
-      <c r="O23" s="33"/>
+      <c r="O23" s="39"/>
       <c r="P23" s="33"/>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
@@ -2646,15 +2694,19 @@
       <c r="W23" s="35"/>
     </row>
     <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="56"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>79</v>
+      </c>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -2662,7 +2714,7 @@
       <c r="L24" s="33"/>
       <c r="M24" s="39"/>
       <c r="N24" s="39"/>
-      <c r="O24" s="33"/>
+      <c r="O24" s="39"/>
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
@@ -2673,7 +2725,7 @@
       <c r="W24" s="35"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="56"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="15"/>
@@ -2696,7 +2748,7 @@
       <c r="W25" s="35"/>
     </row>
     <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="57"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="40"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
@@ -2811,6 +2863,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G2:Q2"/>
+    <mergeCell ref="G3:Q3"/>
+    <mergeCell ref="G4:Q4"/>
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="H9:W9"/>
     <mergeCell ref="B12:B19"/>
@@ -2824,13 +2883,6 @@
     <mergeCell ref="G6:Q6"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G2:Q2"/>
-    <mergeCell ref="G3:Q3"/>
-    <mergeCell ref="G4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/숙박여행사이트 프로젝트 문서/2차_WBS_샘플_v1.2.xlsx
+++ b/숙박여행사이트 프로젝트 문서/2차_WBS_샘플_v1.2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초기개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +130,6 @@
   </si>
   <si>
     <t>테스트/리어설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀별 통합 테스트 / 리어설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -860,10 +852,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 배너 개발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1083,26 +1071,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장바구니</t>
     </r>
     <r>
       <rPr>
@@ -1119,7 +1160,41 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>마다</t>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개별</t>
     </r>
     <r>
       <rPr>
@@ -1136,7 +1211,24 @@
         <family val="1"/>
         <charset val="129"/>
       </rPr>
-      <t>예약</t>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
     </r>
     <r>
       <rPr>
@@ -1146,22 +1238,39 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?%</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 통합 테스트 / 리어설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애드원 api 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 상세 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,7 +1673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1676,9 +1785,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1688,55 +1794,10 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1750,6 +1811,51 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2065,10 +2171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W29"/>
+  <dimension ref="B2:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="107" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2087,181 +2193,181 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="53"/>
+      <c r="C2" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="41"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
+      <c r="G2" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="42">
         <v>45621</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="41"/>
       <c r="F3" s="31"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="42">
         <v>45642</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="41"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
+      <c r="G4" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="53"/>
+      <c r="C5" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="F6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="F6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="57"/>
+      <c r="G6" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
     </row>
     <row r="9" spans="2:23" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="57" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="46"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="51"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1">
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="41" t="s">
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="41" t="s">
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="48"/>
       <c r="W10" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1">
-      <c r="B11" s="55"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="6" t="s">
         <v>12</v>
       </c>
@@ -2269,31 +2375,31 @@
         <v>15</v>
       </c>
       <c r="I11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="L11" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>15</v>
       </c>
       <c r="N11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="Q11" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>15</v>
@@ -2311,31 +2417,31 @@
         <v>19</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="47" t="s">
-        <v>23</v>
+      <c r="B12" s="52" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F12" s="10">
         <v>1</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
       <c r="O12" s="33"/>
@@ -2349,29 +2455,29 @@
       <c r="W12" s="34"/>
     </row>
     <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="48"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F13" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
       <c r="R13" s="33"/>
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
@@ -2380,29 +2486,29 @@
       <c r="W13" s="35"/>
     </row>
     <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="48"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F14" s="23">
-        <v>0.7</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
       <c r="R14" s="33"/>
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
@@ -2411,61 +2517,61 @@
       <c r="W14" s="35"/>
     </row>
     <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="48"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F15" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
     </row>
     <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="48"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F16" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
@@ -2473,21 +2579,21 @@
       <c r="W16" s="35"/>
     </row>
     <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="48"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" s="23">
         <v>1</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
@@ -2499,30 +2605,30 @@
       <c r="R17" s="33"/>
       <c r="S17" s="33"/>
       <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
       <c r="W17" s="35"/>
     </row>
     <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="48"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F18" s="23">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="33"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
@@ -2535,22 +2641,22 @@
       <c r="W18" s="35"/>
     </row>
     <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="49"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F19" s="23">
         <v>1</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
       <c r="M19" s="33"/>
@@ -2567,16 +2673,16 @@
     </row>
     <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="23">
         <v>1</v>
@@ -2586,8 +2692,8 @@
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
       <c r="O20" s="36"/>
       <c r="P20" s="33"/>
       <c r="Q20" s="33"/>
@@ -2599,51 +2705,51 @@
       <c r="W20" s="35"/>
     </row>
     <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="50" t="s">
-        <v>24</v>
+      <c r="B21" s="55" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="F21" s="23">
+        <v>1</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
       <c r="W21" s="35"/>
     </row>
     <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="51"/>
-      <c r="C22" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>67</v>
+      <c r="B22" s="56"/>
+      <c r="C22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="F22" s="23">
+        <v>1</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
@@ -2651,30 +2757,30 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
       <c r="U22" s="33"/>
       <c r="V22" s="33"/>
       <c r="W22" s="35"/>
     </row>
     <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="51"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="F23" s="23">
+        <v>1</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
@@ -2682,78 +2788,92 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
       <c r="V23" s="33"/>
       <c r="W23" s="35"/>
     </row>
     <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="51"/>
+      <c r="B24" s="56"/>
       <c r="C24" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>71</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
       <c r="U24" s="33"/>
       <c r="V24" s="33"/>
       <c r="W24" s="35"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="51"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="23"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="23">
+        <v>1</v>
+      </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
       <c r="U25" s="33"/>
       <c r="V25" s="33"/>
       <c r="W25" s="35"/>
     </row>
     <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="52"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="F26" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
@@ -2762,27 +2882,29 @@
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
       <c r="W26" s="35"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="F27" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
@@ -2793,24 +2915,25 @@
       <c r="N27" s="33"/>
       <c r="O27" s="33"/>
       <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
       <c r="W27" s="35"/>
     </row>
     <row r="28" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>35</v>
+      <c r="B28" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
@@ -2825,51 +2948,72 @@
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="37"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
     </row>
     <row r="29" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="F29" s="23">
+        <v>0</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="38">
+      <c r="D30" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="37">
         <v>0</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="5"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G2:Q2"/>
-    <mergeCell ref="G3:Q3"/>
-    <mergeCell ref="G4:Q4"/>
     <mergeCell ref="R10:V10"/>
     <mergeCell ref="H9:W9"/>
     <mergeCell ref="B12:B19"/>
@@ -2883,6 +3027,13 @@
     <mergeCell ref="G6:Q6"/>
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G2:Q2"/>
+    <mergeCell ref="G3:Q3"/>
+    <mergeCell ref="G4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
